--- a/Prescriptive Analytics/Zooter.xlsx
+++ b/Prescriptive Analytics/Zooter.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="29005"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Savin\Desktop\Operations Analytics MOOC\Week 2\Session 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/japjot/Desktop/cs/coursera/op-analytics/Prescriptive Analytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="110" windowWidth="9380" windowHeight="4970"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,15 @@
     <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -69,7 +77,7 @@
     <author>Savin</author>
   </authors>
   <commentList>
-    <comment ref="F10" authorId="0" shapeId="0">
+    <comment ref="F10" authorId="0">
       <text>
         <r>
           <rPr>
@@ -83,7 +91,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E14" authorId="0" shapeId="0">
+    <comment ref="E14" authorId="0">
       <text>
         <r>
           <rPr>
@@ -102,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="21">
   <si>
     <t>Zooter.xlsx</t>
   </si>
@@ -144,6 +152,27 @@
   </si>
   <si>
     <t>Required (hours)</t>
+  </si>
+  <si>
+    <t>RI example</t>
+  </si>
+  <si>
+    <t>Oratoköy</t>
+  </si>
+  <si>
+    <t>Beyoglu</t>
+  </si>
+  <si>
+    <t>Starch</t>
+  </si>
+  <si>
+    <t>Sugar</t>
+  </si>
+  <si>
+    <t>Fruit Juice</t>
+  </si>
+  <si>
+    <t>Required</t>
   </si>
 </sst>
 </file>
@@ -221,42 +250,42 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,9 +510,9 @@
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -516,9 +545,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -720,58 +749,143 @@
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="1" width="700" row="0">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{B09BD732-781B-B945-851E-900F7C7F1657}">
+  <we:reference id="wa104100404" version="2.0.0.0" store="en-US" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="WA104100404" version="2.0.0.0" store="WA104100404" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties>
+    <we:property name="UniqueID" value="&quot;2018081515457637837&quot;"/>
+    <we:property name="J1JT" value="&quot;&quot;"/>
+    <we:property name="G19VFDwUMAsCUw==" value="&quot;L2J+&quot;"/>
+    <we:property name="JV9dBzVHIAwG" value="&quot;THYdU2k=&quot;"/>
+    <we:property name="JV9dBzVHIg8UeSMP" value="&quot;WQ==&quot;"/>
+    <we:property name="JV9dBzVHOQ8eXSsDC1BH" value="&quot;THQdU2k=&quot;"/>
+    <we:property name="JV9dBzVHOQ8eXSsDC1BHWQ==" value="&quot;THQdUWs=&quot;"/>
+    <we:property name="JV9dBzVHOQ8eXSsDC1BHWg==" value="&quot;THMdU2k=&quot;"/>
+    <we:property name="JV9dBzVHOQ8eXSsDC1BHWA==" value="&quot;&quot;"/>
+    <we:property name="JV9dBzVHHAEAQi8TOFtBBQ==" value="&quot;XA==&quot;"/>
+    <we:property name="JV9dBzVHHAEAQi8TOFlcGwE=" value="&quot;THUdUW9cSytIB3I=&quot;"/>
+    <we:property name="JV9dBzVHHAEAQi8TOEdRBAE=" value="&quot;SAwEQg==&quot;"/>
+    <we:property name="JV9dBzVHHAEAQi8TOEdcGwE=" value="&quot;THcdUW9cSylIB3I=&quot;"/>
+    <we:property name="JV9dBzVHHAEAQi8TOFlcGwI=" value="&quot;THMdUWtcSypIB3g=&quot;"/>
+    <we:property name="JV9dBzVHHAEAQi8TOEdRBAI=" value="&quot;SA0ZCzcSCgkJRg==&quot;"/>
+    <we:property name="JV9dBzVHHAEAQi8TOEdcGwI=" value="&quot;&quot;"/>
+    <we:property name="JV9dBzVHHAEAQi8TOENVBA==" value="&quot;WA==&quot;"/>
+    <we:property name="JV9dBzVHHAEAQi8TOEVGDQ==" value="&quot;WB4JUmlWX18=&quot;"/>
+    <we:property name="JV9dBzVHHAEAQi8TOEZXBA==" value="&quot;WQ==&quot;"/>
+    <we:property name="JV9dBzVHHAEAQi8TOEdYEA==" value="&quot;WA==&quot;"/>
+    <we:property name="JV9dBzVHHAEAQi8TOEFbBA==" value="&quot;WB4JUw==&quot;"/>
+    <we:property name="JV9dBzVHHAEAQi8TOFZCDw==" value="&quot;WB4JUmlX&quot;"/>
+    <we:property name="JV9dBzVHHAEAQi8TOFhHBA==" value="&quot;WA==&quot;"/>
+    <we:property name="JV9dBzVHHAEAQi8TOEZHEg==" value="&quot;WQAJ&quot;"/>
+    <we:property name="JV9dBzVHHAEAQi8TOEdHDA==" value="&quot;WA==&quot;"/>
+    <we:property name="JV9dBzVHHAEAQi8TOFhGHA==" value="&quot;WB4JVWw=&quot;"/>
+    <we:property name="JV9dBzVHHAEAQi8TOFhaAQ==" value="&quot;WwA=&quot;"/>
+    <we:property name="JV9dBzVHHAEAQi8TOEdWHg==" value="&quot;WQ==&quot;"/>
+    <we:property name="JV9dBzVHHAEAQi8TOFtRDw==" value="&quot;WQ==&quot;"/>
+    <we:property name="JV9dBzVHHAEAQi8TOFRXCw==" value="&quot;WB4JUmg=&quot;"/>
+    <we:property name="JV9dBzVHHAEAQi8TOEdRGw==" value="&quot;XQ==&quot;"/>
+    <we:property name="JV9dBzVHHAEAQi8TOFRGGw==" value="&quot;WQ==&quot;"/>
+    <we:property name="JV9dBzVHHAEAQi8TOEZACQ==" value="&quot;WA==&quot;"/>
+    <we:property name="JV9dBzVHHAEAQi8TOFhRHA==" value="&quot;WQ==&quot;"/>
+    <we:property name="JV9dBzVHHAEAQi8TOEZbCw==" value="&quot;WA==&quot;"/>
+    <we:property name="JV9dBzVHHAEAQi8TOFlEHA==" value="&quot;WA==&quot;"/>
+    <we:property name="JV9dBzVHHAEAQi8TOFlEGA==" value="&quot;WA==&quot;"/>
+    <we:property name="JV9dBzVHHAEAQi8TOFJVGA==" value="&quot;WB4JUmlWX18=&quot;"/>
+    <we:property name="JV9dBzVHHAEAQi8TOFxEGw==" value="&quot;WB4AWw==&quot;"/>
+    <we:property name="JV9dBzVHHAEAQi8TOFNRCQ==" value="&quot;WB4JUmlWX18=&quot;"/>
+    <we:property name="JV9dBzVHHAEAQi8TOFxEAQ==" value="&quot;WQ==&quot;"/>
+    <we:property name="JV9dBzVHHAEAQi8TOFxEDA==" value="&quot;Ww==&quot;"/>
+    <we:property name="JV9dBzVHHAEAQi8TOFBaDw==" value="&quot;L2J+&quot;"/>
+    <we:property name="JV9dBzVHHAEAQi8TOFlcGwM=" value="&quot;THUdU21cSytIBXw=&quot;"/>
+    <we:property name="JV9dBzVHHAEAQi8TOEdRBAM=" value="&quot;SAwEQg==&quot;"/>
+    <we:property name="JV9dBzVHHAEAQi8TOEdcGwM=" value="&quot;THcdU21cSylIBXw=&quot;"/>
+    <we:property name="JV9dBzVHHAEAQi8TOFlcGwQ=" value="&quot;THMdU2lcSypIBXo=&quot;"/>
+    <we:property name="JV9dBzVHHAEAQi8TOEdRBAQ=" value="&quot;SA0ZCzcSCgkJRg==&quot;"/>
+    <we:property name="JV9dBzVHHAEAQi8TOEdcGwQ=" value="&quot;&quot;"/>
+    <we:property name="JV9dBzVHHAEAQi8TOFBHHA==" value="&quot;WQ==&quot;"/>
+    <we:property name="JV9dBzVHHAEAQi8TOFtDHA==" value="&quot;WQ==&quot;"/>
+    <we:property name="JV9dBzVHHAEAQi8TOEFZGw==" value="&quot;WA==&quot;"/>
+    <we:property name="JV9dBzVHHAEAQi8TOF5dHg==" value="&quot;&quot;"/>
+  </we:properties>
+  <we:bindings>
+    <we:binding id="refEdit" type="matrix" appref="{5A3D7E5A-FCCD-674A-B2A2-8C5DB41FBE72}"/>
+    <we:binding id="Worker" type="matrix" appref="{863B1DCE-171D-B143-83F8-D7AF90CB37EF}"/>
+    <we:binding id="Var$C$10:$D$10" type="matrix" appref="{3C9B98A9-0C0B-EA46-A760-5C97C691A9F5}"/>
+    <we:binding id="Var$C$32" type="matrix" appref="{2D971BDC-9A7A-454C-B815-75FA9B294FB2}"/>
+    <we:binding id="Var$D$32" type="matrix" appref="{95B2AB60-BB41-C64B-9D44-3B504B01BF9A}"/>
+    <we:binding id="Obj" type="matrix" appref="{617C0DD6-394C-C348-9430-62F19344C5A9}"/>
+    <we:binding id="Var$D$10" type="matrix" appref="{40E8EDFF-A596-324F-BE4D-FF8D5D227A33}"/>
+    <we:binding id="Var$C$10" type="matrix" appref="{BE6A0AF1-F809-CE4A-97A1-EE5E2E14E7D4}"/>
+  </we:bindings>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr transitionEvaluation="1"/>
-  <dimension ref="A1:H17"/>
+  <sheetPr transitionEvaluation="1" enableFormatConditionsCalculation="0"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="127" zoomScaleNormal="127" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="94" zoomScaleNormal="127" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.23046875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.921875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="14" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.53515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.61328125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="12.07421875" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.61328125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="10.84375" style="2"/>
+    <col min="4" max="4" width="11.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="10.5703125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="10.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="C4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="C5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="C7" s="1"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="6"/>
       <c r="C8" s="8" t="s">
         <v>1</v>
@@ -780,46 +894,55 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="12">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D9" s="13">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="14">
-        <v>840</v>
+        <v>440</v>
       </c>
       <c r="D10" s="15">
-        <v>450</v>
+        <v>770</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="16">
         <f>SUMPRODUCT(C9:D9,C10:D10)</f>
-        <v>198000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+        <v>190300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="11"/>
       <c r="G12" s="3"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="L12" s="2">
+        <v>8</v>
+      </c>
+      <c r="M12" s="2">
+        <v>5</v>
+      </c>
+      <c r="N12" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="11" t="s">
         <v>1</v>
       </c>
@@ -832,8 +955,17 @@
       <c r="G13" s="11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="L13" s="2">
+        <v>4</v>
+      </c>
+      <c r="M13" s="2">
+        <v>11</v>
+      </c>
+      <c r="N13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>3</v>
       </c>
@@ -854,8 +986,17 @@
         <v>5610</v>
       </c>
       <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="L14" s="2">
+        <v>3</v>
+      </c>
+      <c r="M14" s="2">
+        <v>9</v>
+      </c>
+      <c r="N14" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>6</v>
       </c>
@@ -867,7 +1008,7 @@
       </c>
       <c r="E15" s="2">
         <f t="shared" ref="E15:E16" si="0">SUMPRODUCT($C$10:$D$10,C15:D15)</f>
-        <v>2160</v>
+        <v>2200</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>7</v>
@@ -877,7 +1018,7 @@
       </c>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
         <v>4</v>
       </c>
@@ -889,7 +1030,7 @@
       </c>
       <c r="E16" s="2">
         <f t="shared" si="0"/>
-        <v>1200</v>
+        <v>1056</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>7</v>
@@ -897,9 +1038,172 @@
       <c r="G16" s="2">
         <v>1200</v>
       </c>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.35">
+      <c r="N16" s="2">
+        <f>SUMPRODUCT($L$12:$N$12,L13:N13)</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="F17" s="5"/>
+      <c r="N17" s="2">
+        <f>SUMPRODUCT($L$12:$N$12,L14:N14)</f>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="6"/>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="6"/>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="6"/>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A26" s="6"/>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A27" s="6"/>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A28" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A29" s="6"/>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A30" s="6"/>
+      <c r="C30" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="12">
+        <v>5</v>
+      </c>
+      <c r="D31" s="13">
+        <v>5.3</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="14">
+        <v>213</v>
+      </c>
+      <c r="D32" s="15">
+        <v>429</v>
+      </c>
+      <c r="E32" s="4"/>
+      <c r="F32" s="16">
+        <f>SUMPRODUCT(C31:D31,C32:D32)</f>
+        <v>3338.7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="10"/>
+      <c r="E34" s="11"/>
+      <c r="G34" s="3"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C35" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0.3</v>
+      </c>
+      <c r="E36" s="2">
+        <f xml:space="preserve"> SUMPRODUCT($C$32:$D$32,C36:D36)</f>
+        <v>150</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A37" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.05</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="E37" s="2">
+        <f t="shared" ref="E37:E38" si="1" xml:space="preserve"> SUMPRODUCT($C$32:$D$32,C37:D37)</f>
+        <v>53.550000000000004</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A38" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.03</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="1"/>
+        <v>14.969999999999999</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="2">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -909,5 +1213,32 @@
   <headerFooter alignWithMargins="0"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{F7C9EE02-42E1-4005-9D12-6889AFFD525C}">
+      <x15:webExtensions xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+        <x15:webExtension appRef="{3C9B98A9-0C0B-EA46-A760-5C97C691A9F5}">
+          <xm:f>Model!$C$10:$D$10</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{2D971BDC-9A7A-454C-B815-75FA9B294FB2}">
+          <xm:f>Model!$C$32</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{40E8EDFF-A596-324F-BE4D-FF8D5D227A33}">
+          <xm:f>Model!$D$10</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{95B2AB60-BB41-C64B-9D44-3B504B01BF9A}">
+          <xm:f>Model!$D$32</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{BE6A0AF1-F809-CE4A-97A1-EE5E2E14E7D4}">
+          <xm:f>Model!$C$10</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{5A3D7E5A-FCCD-674A-B2A2-8C5DB41FBE72}">
+          <xm:f>Model!1:1048576</xm:f>
+        </x15:webExtension>
+        <x15:webExtension appRef="{863B1DCE-171D-B143-83F8-D7AF90CB37EF}">
+          <xm:f>Model!XFD1048550:XFD1048575</xm:f>
+        </x15:webExtension>
+      </x15:webExtensions>
+    </ext>
+  </extLst>
 </worksheet>
 </file>